--- a/2015WorldCup/predictions/Round_QF_Matrix.xlsx
+++ b/2015WorldCup/predictions/Round_QF_Matrix.xlsx
@@ -611,18 +611,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -638,19 +626,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -725,12 +701,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -747,6 +717,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1068,7 +1068,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1104,31 +1104,31 @@
         <v>21</v>
       </c>
       <c r="C2">
-        <f>1-C25</f>
+        <f t="shared" ref="C2:I2" si="0">1-C25</f>
         <v>0.68870209999999998</v>
       </c>
       <c r="D2">
-        <f>1-D25</f>
+        <f t="shared" si="0"/>
         <v>0.37946869999999999</v>
       </c>
       <c r="E2">
-        <f>1-E25</f>
+        <f t="shared" si="0"/>
         <v>0.71158860000000002</v>
       </c>
       <c r="F2">
-        <f>1-F25</f>
+        <f t="shared" si="0"/>
         <v>0.59914179999999995</v>
       </c>
       <c r="G2">
-        <f>1-G25</f>
+        <f t="shared" si="0"/>
         <v>0.63432500000000003</v>
       </c>
       <c r="H2">
-        <f>1-H25</f>
+        <f t="shared" si="0"/>
         <v>0.44802050000000004</v>
       </c>
       <c r="I2">
-        <f>1-I25</f>
+        <f t="shared" si="0"/>
         <v>0.82286329999999996</v>
       </c>
     </row>
@@ -1141,27 +1141,27 @@
         <v>0.31129790000000002</v>
       </c>
       <c r="D3">
-        <f>1-D26</f>
+        <f t="shared" ref="D3:I3" si="1">1-D26</f>
         <v>0.20346189999999997</v>
       </c>
       <c r="E3">
-        <f>1-E26</f>
+        <f t="shared" si="1"/>
         <v>0.52113989999999999</v>
       </c>
       <c r="F3">
-        <f>1-F26</f>
+        <f t="shared" si="1"/>
         <v>0.39121930000000005</v>
       </c>
       <c r="G3">
-        <f>1-G26</f>
+        <f t="shared" si="1"/>
         <v>0.47556549999999997</v>
       </c>
       <c r="H3">
-        <f>1-H26</f>
+        <f t="shared" si="1"/>
         <v>0.24334500000000003</v>
       </c>
       <c r="I3">
-        <f>1-I26</f>
+        <f t="shared" si="1"/>
         <v>0.69055280000000008</v>
       </c>
     </row>
@@ -1379,20 +1379,19 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <f>C2</f>
-        <v>0.68870209999999998</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <f>B13*(B15*D2+B16*E2)</f>
-        <v>0.30409742765197689</v>
+        <v>0.44155147436311998</v>
       </c>
       <c r="D13">
         <f>C13*($C$17*F2+$C$18*G2+$C$19*H2+$C$20*I2)</f>
-        <v>0.15885770351978348</v>
+        <v>0.23066243520933574</v>
       </c>
       <c r="E13" s="5">
         <f>D13</f>
-        <v>0.15885770351978348</v>
+        <v>0.23066243520933574</v>
       </c>
       <c r="G13" t="s">
         <v>24</v>
@@ -1400,9 +1399,9 @@
       <c r="H13" s="6">
         <v>0.3532327172622905</v>
       </c>
-      <c r="J13" s="53">
+      <c r="J13" s="43">
         <f>B13*B15*B18*B19</f>
-        <v>0.21182416938365708</v>
+        <v>0.30757009363505222</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -1411,19 +1410,19 @@
       </c>
       <c r="B14">
         <f>1-B13</f>
-        <v>0.31129790000000002</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <f>B14*(B15*D3+B16*E3)</f>
-        <v>8.182311748406694E-2</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <f>C14*($C$17*F3+$C$18*G3+$C$19*H3+$C$20*I3)</f>
-        <v>2.670402553544915E-2</v>
+        <v>0</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" ref="E14:E20" si="0">D14</f>
-        <v>2.670402553544915E-2</v>
+        <f t="shared" ref="E14:E20" si="2">D14</f>
+        <v>0</v>
       </c>
       <c r="G14" t="s">
         <v>28</v>
@@ -1431,9 +1430,9 @@
       <c r="H14" s="6">
         <v>0.3034132655874513</v>
       </c>
-      <c r="J14" s="53">
+      <c r="J14" s="43">
         <f>B14*B16*B17*B20</f>
-        <v>4.1496123955434587E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -1446,15 +1445,15 @@
       </c>
       <c r="C15">
         <f>B15*(B13*B4+B14*C4)</f>
-        <v>0.54908474471003277</v>
+        <v>0.50453612872856002</v>
       </c>
       <c r="D15">
         <f>C15*($C$17*F4+$C$18*G4+$C$19*H4+$C$20*I4)</f>
-        <v>0.3532327172622905</v>
+        <v>0.32457406515983589</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" si="0"/>
-        <v>0.3532327172622905</v>
+        <f t="shared" si="2"/>
+        <v>0.32457406515983589</v>
       </c>
       <c r="G15" t="s">
         <v>21</v>
@@ -1473,15 +1472,15 @@
       </c>
       <c r="C16">
         <f>B16*(B13*B5+B14*C5)</f>
-        <v>6.499471015392333E-2</v>
+        <v>5.3912396908319997E-2</v>
       </c>
       <c r="D16">
         <f>C16*($C$17*F5+$C$18*G5+$C$19*H5+$C$20*I5)</f>
-        <v>1.9826829386506793E-2</v>
+        <v>1.6446136813095293E-2</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" si="0"/>
-        <v>1.9826829386506793E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.6446136813095293E-2</v>
       </c>
       <c r="G16" t="s">
         <v>26</v>
@@ -1504,11 +1503,11 @@
       </c>
       <c r="D17">
         <f>C17*($C$13*B6+$C$14*C6+$C$15*D6+$C$16*E6)</f>
-        <v>8.210836895957821E-2</v>
+        <v>7.8908979177035946E-2</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" si="0"/>
-        <v>8.210836895957821E-2</v>
+        <f t="shared" si="2"/>
+        <v>7.8908979177035946E-2</v>
       </c>
       <c r="G17" t="s">
         <v>27</v>
@@ -1530,12 +1529,12 @@
         <v>0.15322430617909946</v>
       </c>
       <c r="D18">
-        <f t="shared" ref="D18:D20" si="1">C18*($C$13*B7+$C$14*C7+$C$15*D7+$C$16*E7)</f>
-        <v>5.0748508786131179E-2</v>
+        <f t="shared" ref="D18:D20" si="3">C18*($C$13*B7+$C$14*C7+$C$15*D7+$C$16*E7)</f>
+        <v>4.9198190154865255E-2</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="0"/>
-        <v>5.0748508786131179E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.9198190154865255E-2</v>
       </c>
       <c r="G18" t="s">
         <v>22</v>
@@ -1557,12 +1556,12 @@
         <v>0.59135068231032462</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
-        <v>0.3034132655874513</v>
+        <f t="shared" si="3"/>
+        <v>0.29540132748483017</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" si="0"/>
-        <v>0.3034132655874513</v>
+        <f t="shared" si="2"/>
+        <v>0.29540132748483017</v>
       </c>
       <c r="G19" t="s">
         <v>25</v>
@@ -1584,12 +1583,12 @@
         <v>3.2289158327789551E-2</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
-        <v>5.1085809628092956E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.8088660010015861E-3</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" si="0"/>
-        <v>5.1085809628092956E-3</v>
+        <f t="shared" si="2"/>
+        <v>4.8088660010015861E-3</v>
       </c>
       <c r="G20" t="s">
         <v>29</v>
@@ -1607,11 +1606,11 @@
         <v>4</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:D21" si="2">SUM(C13:C20)</f>
+        <f t="shared" ref="C21:D21" si="4">SUM(C13:C20)</f>
         <v>2</v>
       </c>
       <c r="D21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -1848,323 +1847,323 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="35"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="44"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B3" s="36"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="8" t="s">
+      <c r="D3" s="45"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="8" t="s">
+      <c r="I3" s="45"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="25"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="17"/>
     </row>
     <row r="4" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="36"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="10" t="s">
+      <c r="D4" s="47"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="10" t="s">
+      <c r="I4" s="47"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="25"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="17"/>
     </row>
     <row r="5" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="36"/>
-      <c r="C5" s="46" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="20" t="s">
+      <c r="D5" s="51"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="17" t="s">
+      <c r="I5" s="53"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="N5" s="18"/>
-      <c r="O5" s="23"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="15"/>
     </row>
     <row r="6" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="25"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="17"/>
     </row>
     <row r="7" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="36"/>
-      <c r="C7" s="45" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="19" t="s">
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="25"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="17"/>
     </row>
     <row r="8" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="36"/>
-      <c r="C8" s="26">
+      <c r="B8" s="28"/>
+      <c r="C8" s="18">
         <v>25</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="19">
         <v>20</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="12">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="8">
         <v>27</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="9">
         <v>23</v>
       </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="25"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="17"/>
     </row>
     <row r="9" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="36"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="25"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="17"/>
     </row>
     <row r="10" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="36"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="45" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="49" t="s">
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="25"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="17"/>
     </row>
     <row r="11" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="36"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="13">
+      <c r="B11" s="28"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="9">
         <v>26</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="8">
         <v>32</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="13">
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="9">
         <v>16</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="8">
         <v>22</v>
       </c>
-      <c r="L11" s="30"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="25"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="17"/>
     </row>
     <row r="12" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="36"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="25"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="17"/>
     </row>
     <row r="13" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="36"/>
-      <c r="C13" s="45" t="s">
+      <c r="B13" s="28"/>
+      <c r="C13" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="19" t="s">
+      <c r="E13" s="16"/>
+      <c r="F13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="52" t="s">
+      <c r="G13" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="49" t="s">
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K13" s="50" t="s">
+      <c r="K13" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="L13" s="24"/>
-      <c r="M13" s="16" t="s">
+      <c r="L13" s="16"/>
+      <c r="M13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="N13" s="51" t="s">
+      <c r="N13" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="O13" s="25"/>
+      <c r="O13" s="17"/>
     </row>
     <row r="14" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="36"/>
-      <c r="C14" s="26">
+      <c r="B14" s="28"/>
+      <c r="C14" s="18">
         <v>29</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="19">
         <v>21</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="12">
+      <c r="E14" s="16"/>
+      <c r="F14" s="8">
         <v>30</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="9">
         <v>16</v>
       </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="12">
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="8">
         <v>26</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="9">
         <v>23</v>
       </c>
-      <c r="L14" s="24"/>
-      <c r="M14" s="12">
+      <c r="L14" s="16"/>
+      <c r="M14" s="8">
         <v>33</v>
       </c>
-      <c r="N14" s="27">
-        <v>14</v>
-      </c>
-      <c r="O14" s="25"/>
+      <c r="N14" s="19">
+        <v>14</v>
+      </c>
+      <c r="O14" s="17"/>
     </row>
     <row r="15" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="41"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="29"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="21"/>
     </row>
     <row r="16" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
